--- a/data/catalogo.xlsx
+++ b/data/catalogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infob\Desktop\JQ_Motors_web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E8309E-C7E4-4D25-8A29-A609E0D22059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F09949-26D8-477B-87E6-2EA328485109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2970" yWindow="2010" windowWidth="14430" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5304" uniqueCount="3364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5303" uniqueCount="3363">
   <si>
     <t>codigo</t>
   </si>
@@ -10109,9 +10109,6 @@
   </si>
   <si>
     <t>imagen</t>
-  </si>
-  <si>
-    <t>jg571014.png</t>
   </si>
 </sst>
 </file>
@@ -10532,8 +10529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1808"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10565,9 +10562,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3363</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/catalogo.xlsx
+++ b/data/catalogo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infob\Desktop\JQ_Motors_web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE6789-6EED-4070-A60B-12EA09F8FDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD2E5E-4BB7-4B5C-A47E-D8F660591058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="2655" windowWidth="14430" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11120,8 +11120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
